--- a/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +453,524 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45452</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45501</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45515</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45522</v>
+      </c>
+      <c r="B16" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45529</v>
+      </c>
+      <c r="B17" t="n">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B18" t="n">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45543</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45550</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B22" t="n">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45578</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45585</v>
+      </c>
+      <c r="B25" t="n">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="B26" t="n">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45599</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45613</v>
+      </c>
+      <c r="B29" t="n">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B30" t="n">
+        <v>346</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B31" t="n">
+        <v>359</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B32" t="n">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B33" t="n">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B34" t="n">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B35" t="n">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
         </is>
       </c>
     </row>
@@ -459,373 +979,327 @@
         <v>45418</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45425</v>
+        <v>45439</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45432</v>
+        <v>45453</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45460</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45446</v>
+        <v>45467</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45474</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45460</v>
+        <v>45481</v>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45467</v>
+        <v>45488</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45474</v>
+        <v>45495</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45481</v>
+        <v>45502</v>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45488</v>
+        <v>45509</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45495</v>
+        <v>45516</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45502</v>
+        <v>45530</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45509</v>
+        <v>45537</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="C15" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45516</v>
+        <v>45544</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45523</v>
+        <v>45551</v>
       </c>
       <c r="B17" t="n">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45530</v>
+        <v>45558</v>
       </c>
       <c r="B18" t="n">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45537</v>
+        <v>45565</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>300</v>
+        <v>-44.99999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45572</v>
       </c>
       <c r="B20" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>36.36363636363635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45579</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>780</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45558</v>
+        <v>45586</v>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>400</v>
+        <v>-97.43589743589743</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45565</v>
+        <v>45628</v>
       </c>
       <c r="B23" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="B24" t="n">
-        <v>56</v>
-      </c>
-      <c r="C24" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="B25" t="n">
-        <v>40</v>
-      </c>
-      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3240</v>
+      </c>
+      <c r="B2" t="n">
+        <v>147.2727272727273</v>
+      </c>
+      <c r="C2" t="n">
         <v>780</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B26" t="n">
-        <v>38</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="D2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="B27" t="n">
-        <v>14</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B28" t="n">
-        <v>23</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B29" t="n">
-        <v>132</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B30" t="n">
-        <v>346</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B31" t="n">
-        <v>359</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B32" t="n">
-        <v>112</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B33" t="n">
-        <v>62</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B34" t="n">
-        <v>51</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B35" t="n">
-        <v>56</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>295.0649350649351</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,488 +453,381 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="C2" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>118</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>34</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>56</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>40</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>38</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>14</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>23</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>132</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>346</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>359</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>112</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>62</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>51</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>56</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -976,7 +869,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -987,7 +880,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -998,7 +891,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>60</v>
@@ -1009,7 +902,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -1020,7 +913,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>80</v>
@@ -1031,7 +924,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>80</v>
@@ -1042,7 +935,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>120</v>
@@ -1053,7 +946,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>40</v>
@@ -1064,7 +957,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>40</v>
@@ -1075,7 +968,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>20</v>
@@ -1086,7 +979,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>240</v>
@@ -1097,7 +990,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>60</v>
@@ -1108,7 +1001,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>120</v>
@@ -1119,7 +1012,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>300</v>
@@ -1130,7 +1023,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>200</v>
@@ -1141,7 +1034,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -1152,7 +1045,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>400</v>
@@ -1163,7 +1056,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>220</v>
@@ -1174,7 +1067,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>300</v>
@@ -1185,7 +1078,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>780</v>
@@ -1196,7 +1089,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -1207,7 +1100,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>20</v>

--- a/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,6 +723,14 @@
       </c>
       <c r="B35" t="n">
         <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -13774,7 +13782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14137,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -14159,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -14676,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -14687,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
@@ -14698,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
@@ -14709,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
@@ -14720,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -14731,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -14863,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -14885,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -14907,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
@@ -14918,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
@@ -14929,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -14940,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106">
@@ -15094,7 +15102,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120">
@@ -15105,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -15127,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
@@ -15138,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -15182,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128">
@@ -15193,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129">
@@ -15358,6 +15366,17 @@
         <v>56</v>
       </c>
       <c r="C143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B144" t="n">
+        <v>98</v>
+      </c>
+      <c r="C144" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,6 +731,14 @@
       </c>
       <c r="B36" t="n">
         <v>98</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -13782,7 +13790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15377,6 +15385,17 @@
         <v>98</v>
       </c>
       <c r="C144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,14 @@
       </c>
       <c r="B37" t="n">
         <v>144</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13790,7 +13798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14164,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -14175,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -14186,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -14208,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -14230,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -14252,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -14274,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -14285,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -14450,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -14461,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
@@ -14505,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -14527,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -14538,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
@@ -14648,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
@@ -14659,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -14769,7 +14777,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89">
@@ -14780,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -14791,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91">
@@ -14813,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -14824,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -14879,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -14890,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
@@ -14901,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
@@ -14912,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
@@ -14923,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -14934,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
@@ -14956,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -15011,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111">
@@ -15022,7 +15030,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -15033,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -15044,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114">
@@ -15055,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
@@ -15066,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116">
@@ -15088,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -15143,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -15154,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124">
@@ -15165,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
@@ -15198,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -15396,6 +15404,17 @@
         <v>144</v>
       </c>
       <c r="C145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B146" t="n">
+        <v>70</v>
+      </c>
+      <c r="C146" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2V4VH2C_sales_po_comparison.xlsx
@@ -746,7 +746,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -15412,7 +15412,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
